--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed4/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.1696</v>
+        <v>16.18380000000001</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.4126</v>
+        <v>-10.33900000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.16280000000003</v>
+        <v>18.32070000000003</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.7612</v>
+        <v>16.8095</v>
       </c>
     </row>
     <row r="15">
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.6807</v>
+        <v>-12.7927</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.49100000000001</v>
+        <v>-11.50220000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.16069999999999</v>
+        <v>16.1586</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.16329999999999</v>
+        <v>-12.15989999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.67229999999999</v>
+        <v>16.72989999999999</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.07090000000001</v>
+        <v>17.01250000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.5421</v>
+        <v>-11.9953</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.55910000000002</v>
+        <v>16.58930000000002</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.38090000000001</v>
+        <v>16.35470000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.30240000000001</v>
+        <v>17.2581</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.02270000000001</v>
+        <v>16.935</v>
       </c>
     </row>
     <row r="53">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.3806</v>
+        <v>16.3601</v>
       </c>
     </row>
     <row r="56">
@@ -1607,13 +1607,13 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.3974</v>
+        <v>-11.4613</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.06540000000003</v>
+        <v>16.98910000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.85330000000002</v>
+        <v>18.05550000000003</v>
       </c>
     </row>
     <row r="71">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.3594</v>
+        <v>-12.14060000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.74470000000001</v>
+        <v>-11.8507</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.6417</v>
+        <v>16.7289</v>
       </c>
     </row>
     <row r="82">
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.8632</v>
+        <v>-11.93269999999999</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1845,13 +1845,13 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.8274</v>
+        <v>-14.22999999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.34289999999999</v>
+        <v>16.2746</v>
       </c>
     </row>
     <row r="84">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.9188</v>
+        <v>-10.8486</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.82900000000001</v>
+        <v>16.7732</v>
       </c>
     </row>
   </sheetData>
